--- a/조별 프로젝트 주간보고서_시네틱스.xlsx
+++ b/조별 프로젝트 주간보고서_시네틱스.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypopp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypopp\OneDrive\바탕 화면\Git_Hub\KSA_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="11" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="3주차" sheetId="9" r:id="rId3"/>
     <sheet name="4주차" sheetId="8" r:id="rId4"/>
     <sheet name="5주차" sheetId="12" r:id="rId5"/>
+    <sheet name="6주차" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1주차'!$A$1:$I$41</definedName>
@@ -24,13 +25,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'3주차'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4주차'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'5주차'!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'6주차'!$A$1:$I$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
   <si>
     <t>조별 프로젝트 주간보고서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1116,6 +1118,130 @@
   </si>
   <si>
     <t>학습용 사진 데이터 수집, 책을 이용한 Django 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[질의 내용]
+KSA : 
+정대식 교수님 : 
+한동준 대표님 : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-06(월) ~ 2021-09-12(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+개인 스터디 
+    - 이철용 : 온라인 자료를 통한 'jump_to_django' 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    - 수집한 사진 데이터 모델 학습
+    - 웹 서비스 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+개인 스터디 
+    - 이철용 : Django를 활용한 Photo 웹 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-02
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디 진행방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 1. Django를 사용하여 웹 서비스 구축 / 2. 수집한 데이터를 모델에 학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다음 미팅까지 준비 사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : jump_to_Django 전체 실습 완료, 파이썬 웹 프로그래밍 책의 예제 중 Photo 앱 관련 실습 구축해보기
+3. 기타 사항 : -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   - 학습용 사진 데이터 수집
+   - 발표 보고서 수정 (구성도 초안 작성 및 필요 언어, 기술 작성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습용 사진 데이터 수집, 발표 보고서 수정
+온라인 자료를 통한 'jump_to_django' 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집한 데이터를 모델에 학습
+Django를 사용하여 웹 서비스 페이지 구축</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2086,7 +2212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2127,6 +2253,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
@@ -2630,357 +2759,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="76"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="77"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="78"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="47"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="48"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="49" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="53"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="54"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
@@ -2989,15 +3118,15 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
@@ -3006,16 +3135,16 @@
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="15" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="16" t="s">
         <v>70</v>
       </c>
       <c r="K31" s="6"/>
@@ -3023,30 +3152,30 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
@@ -3055,16 +3184,16 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="15" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="16" t="s">
         <v>68</v>
       </c>
       <c r="K34" s="6"/>
@@ -3072,30 +3201,30 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="16"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
@@ -3104,20 +3233,20 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="15" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="16" t="s">
         <v>67</v>
       </c>
       <c r="K37" s="6"/>
@@ -3125,54 +3254,54 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="17"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="18"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="41"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3235,357 +3364,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="85"/>
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="86"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="76"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="77"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="78"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="47"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="48"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="49" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="53"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="54"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
@@ -3594,15 +3723,15 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
@@ -3611,16 +3740,16 @@
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="78" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="79" t="s">
         <v>77</v>
       </c>
       <c r="K31" s="6"/>
@@ -3628,30 +3757,30 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
@@ -3660,16 +3789,16 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="15" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="16" t="s">
         <v>74</v>
       </c>
       <c r="K34" s="6"/>
@@ -3677,30 +3806,30 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="16"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
@@ -3709,20 +3838,20 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="15" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="16" t="s">
         <v>76</v>
       </c>
       <c r="K37" s="6"/>
@@ -3730,52 +3859,52 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="17"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="18"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3826,517 +3955,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="85"/>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="86"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="76"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="77"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="78"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="47"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="48"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="49" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="53"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="54"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="78" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="79" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="78" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="79" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="16"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="15" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="17"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -4387,517 +4516,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="85"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="86"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="76"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="77"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="78"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="47"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="48"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="49" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="53"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="54"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="78" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="79" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="78" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="79" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="16"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="15" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="17"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -4936,7 +5065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A25" zoomScale="85" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -4948,517 +5077,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="85"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="86"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="76"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="77"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="78"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="43" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="47"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="48"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="49" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="53"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="54"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="78" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="79" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="16"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="78" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="79" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="16"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
       <c r="J36" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="15" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="17"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5491,4 +5620,565 @@
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="50.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="71"/>
+      <c r="B4" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="77"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="72"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="78"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="48"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="49"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="21"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="31"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="32"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:I36"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:I41"/>
+    <mergeCell ref="J37:J38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.37205882352941178" right="0.29926470588235293" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;D</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/조별 프로젝트 주간보고서_시네틱스.xlsx
+++ b/조별 프로젝트 주간보고서_시네틱스.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="11" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="3주차" sheetId="9" r:id="rId3"/>
     <sheet name="4주차" sheetId="8" r:id="rId4"/>
     <sheet name="5주차" sheetId="12" r:id="rId5"/>
-    <sheet name="6주차" sheetId="13" r:id="rId6"/>
+    <sheet name="6주차" sheetId="15" r:id="rId6"/>
+    <sheet name="7주차" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1주차'!$A$1:$I$41</definedName>
@@ -26,13 +27,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4주차'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'5주차'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'6주차'!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'7주차'!$A$1:$I$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
   <si>
     <t>조별 프로젝트 주간보고서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1121,6 +1123,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2021-09-06(월) ~ 2021-09-12(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+개인 스터디 
+    - 이철용 : 온라인 자료를 통한 'jump_to_django' 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    - 수집한 사진 데이터 모델 학습
+    - 웹 서비스 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+개인 스터디 
+    - 이철용 : Django를 활용한 Photo 웹 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-02
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디 진행방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 1. Django를 사용하여 웹 서비스 구축 / 2. 수집한 데이터를 모델에 학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다음 미팅까지 준비 사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : jump_to_Django 전체 실습 완료, 파이썬 웹 프로그래밍 책의 예제 중 Photo 앱 관련 실습 구축해보기
+3. 기타 사항 : -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   - 학습용 사진 데이터 수집
+   - 발표 보고서 수정 (구성도 초안 작성 및 필요 언어, 기술 작성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습용 사진 데이터 수집, 발표 보고서 수정
+온라인 자료를 통한 'jump_to_django' 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집한 데이터를 모델에 학습
+Django를 사용하여 웹 서비스 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습용 사진 데이터 수집, Django를 이용한 웹 서비스 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">[질의 내용]
 KSA : 
 정대식 교수님 : 
@@ -1128,120 +1251,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021-09-06(월) ~ 2021-09-12(일)</t>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습용 사진 데이터 수집
+Django 가상환경 설정 및 로컬 웹 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-02
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디 진행방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 웹 서비스 구축을 위한 Django 학습, 모델 학습 전까지 지속적으로 데이터 수집</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다음 미팅까지 준비 사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : Django 가상환경 설정, 온라인 자료를 통하여 기본 웹 페이지 구축 실습, 학습 데이터 수집
+3. 기타 사항 : -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도&amp;
+멘토링 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 개인 스터디 
-    - 이철용 : 온라인 자료를 통한 'jump_to_django' 실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-    - 수집한 사진 데이터 모델 학습
-    - 웹 서비스 구축</t>
+    - 이철용 : 온라인 자료를 통한 Django 웹 서비스 구축</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 개인 스터디 
-    - 이철용 : Django를 활용한 Photo 웹 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-02
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스터디 진행방향</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> : 1. Django를 사용하여 웹 서비스 구축 / 2. 수집한 데이터를 모델에 학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 다음 미팅까지 준비 사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> : jump_to_Django 전체 실습 완료, 파이썬 웹 프로그래밍 책의 예제 중 Photo 앱 관련 실습 구축해보기
-3. 기타 사항 : -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t/>
-    </r>
+    - 이철용 : 웹 서비스 구축을 위한 Django 가상환경 설정, 온라인 자료를 통한 'jump_to_django' 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스터디</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&amp;진로</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    - 학습용 사진 데이터 수집
+    - 웹 서비스 구축</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
    - 학습용 사진 데이터 수집
-   - 발표 보고서 수정 (구성도 초안 작성 및 필요 언어, 기술 작성)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습용 사진 데이터 수집, 발표 보고서 수정
-온라인 자료를 통한 'jump_to_django' 실습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수집한 데이터를 모델에 학습
-Django를 사용하여 웹 서비스 페이지 구축</t>
+   - Django 가상환경 설정 및 로컬 웹 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-30(월) ~ 2021-09-05(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 주간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이철용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배정 교육생명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배정 기업명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조별 프로젝트 주간보고서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2261,6 +2433,95 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2273,9 +2534,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2286,15 +2544,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2339,86 +2588,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2434,11 +2608,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2759,207 +2931,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="77"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="78"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="44" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
@@ -2967,149 +3139,149 @@
       <c r="F17" s="46"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="50" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="54"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="55"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
@@ -3118,15 +3290,15 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
@@ -3135,16 +3307,16 @@
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="16" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="57" t="s">
         <v>70</v>
       </c>
       <c r="K31" s="6"/>
@@ -3152,30 +3324,30 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="17"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="58"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
@@ -3184,16 +3356,16 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="16" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="57" t="s">
         <v>68</v>
       </c>
       <c r="K34" s="6"/>
@@ -3201,30 +3373,30 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="17"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="58"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
@@ -3233,20 +3405,20 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="16" t="s">
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="57" t="s">
         <v>67</v>
       </c>
       <c r="K37" s="6"/>
@@ -3254,54 +3426,54 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="18"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="59"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="75"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3317,6 +3489,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:I36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:I41"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
@@ -3324,19 +3509,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:E5"/>
     <mergeCell ref="F4:I5"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:E17"/>
-    <mergeCell ref="F6:I17"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="B18:E28"/>
-    <mergeCell ref="F18:I28"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:I36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39632352941176469" right="0.26691176470588235" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3364,357 +3536,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="86"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="87"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="77"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="78"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="44" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
-      <c r="E17" s="82"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="46"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="50" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="54"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="55"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
@@ -3723,15 +3895,15 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
@@ -3740,16 +3912,16 @@
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="79" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="89" t="s">
         <v>77</v>
       </c>
       <c r="K31" s="6"/>
@@ -3757,30 +3929,30 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="17"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="58"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
@@ -3789,16 +3961,16 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="16" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="57" t="s">
         <v>74</v>
       </c>
       <c r="K34" s="6"/>
@@ -3806,30 +3978,30 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="17"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="58"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
@@ -3838,20 +4010,20 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="16" t="s">
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="57" t="s">
         <v>76</v>
       </c>
       <c r="K37" s="6"/>
@@ -3859,55 +4031,68 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="18"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="59"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="75"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:I36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:I41"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
@@ -3915,19 +4100,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:E5"/>
     <mergeCell ref="F4:I5"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:E17"/>
-    <mergeCell ref="F6:I17"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="B18:E28"/>
-    <mergeCell ref="F18:I28"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:I36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39632352941176469" right="0.28308823529411764" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3955,520 +4127,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="86"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="87"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="77"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="78"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="44" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
-      <c r="E17" s="82"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="46"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="50" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="54"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="55"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="79" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="89" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="17"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="79" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="17"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="58"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="16" t="s">
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="57" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="18"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="59"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="75"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:I36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:I41"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
@@ -4476,19 +4661,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:E5"/>
     <mergeCell ref="F4:I5"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:E17"/>
-    <mergeCell ref="F6:I17"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="B18:E28"/>
-    <mergeCell ref="F18:I28"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:I36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:I41"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J37:J38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.33161764705882352" right="0.33161764705882352" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4516,520 +4688,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="86"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="87"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="77"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="78"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="44" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
-      <c r="E17" s="82"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="46"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="50" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="54"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="55"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="79" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="89" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="17"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="79" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="89" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="17"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="58"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="16" t="s">
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="57" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="18"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="59"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="75"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B37:I41"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
+    <mergeCell ref="B29:I36"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
@@ -5037,19 +5222,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:E5"/>
     <mergeCell ref="F4:I5"/>
-    <mergeCell ref="F6:I17"/>
-    <mergeCell ref="B18:E28"/>
-    <mergeCell ref="F18:I28"/>
-    <mergeCell ref="B29:I36"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:E17"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B37:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.37205882352941178" right="0.29926470588235293" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5077,517 +5249,1078 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="86"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="87"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="77"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="78"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="44" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
-      <c r="E17" s="82"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="46"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="50" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="54"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="55"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="79" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="89" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="17"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="79" t="s">
+      <c r="A34" s="40"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="89" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="17"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="58"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="16" t="s">
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="57" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="18"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="59"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="75"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:I36"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:I41"/>
+    <mergeCell ref="J37:J38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.37205882352941178" right="0.29926470588235293" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;D</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="50.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="48"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="49"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="49"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="49"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="49"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="49"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="49"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="49"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="49"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="49"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="49"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="49"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="49"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="49"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="40"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="58"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="40"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="40"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="89" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="58"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="61"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="68"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="59"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="68"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="68"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="75"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="69"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5622,7 +6355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
@@ -5638,520 +6371,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="86"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="80"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="87"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
+      <c r="G3" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="77"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="78"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
+      <c r="B6" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="46"/>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
-      <c r="E17" s="82"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="46"/>
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
-      <c r="I17" s="49"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="50" t="s">
+      <c r="B18" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="49"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="49"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="49"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="49"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="40"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="49"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="40"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="54"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="55"/>
-    </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="79" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="89" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="17"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="79" t="s">
-        <v>99</v>
+      <c r="A34" s="40"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="89" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="17"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="58"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="79" t="s">
-        <v>100</v>
+      <c r="B37" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="89" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="18"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="59"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="31"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="38"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="75"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="38"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="75"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="41"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:I36"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:I41"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
@@ -6159,19 +6905,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:E5"/>
     <mergeCell ref="F4:I5"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:E17"/>
-    <mergeCell ref="F6:I17"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="B18:E28"/>
-    <mergeCell ref="F18:I28"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B29:I36"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:I41"/>
-    <mergeCell ref="J37:J38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.37205882352941178" right="0.29926470588235293" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/조별 프로젝트 주간보고서_시네틱스.xlsx
+++ b/조별 프로젝트 주간보고서_시네틱스.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="11" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="5주차" sheetId="12" r:id="rId5"/>
     <sheet name="6주차" sheetId="15" r:id="rId6"/>
     <sheet name="7주차" sheetId="14" r:id="rId7"/>
+    <sheet name="8주차" sheetId="16" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1주차'!$A$1:$I$41</definedName>
@@ -28,13 +29,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'5주차'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'6주차'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'7주차'!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'8주차'!$A$1:$I$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="126">
   <si>
     <t>조별 프로젝트 주간보고서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1145,85 +1147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-02
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스터디 진행방향</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> : 1. Django를 사용하여 웹 서비스 구축 / 2. 수집한 데이터를 모델에 학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 다음 미팅까지 준비 사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> : jump_to_Django 전체 실습 완료, 파이썬 웹 프로그래밍 책의 예제 중 Photo 앱 관련 실습 구축해보기
-3. 기타 사항 : -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
    - 학습용 사진 데이터 수집
    - 발표 보고서 수정 (구성도 초안 작성 및 필요 언어, 기술 작성)</t>
@@ -1414,6 +1337,193 @@
   </si>
   <si>
     <t>조별 프로젝트 주간보고서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-13(월) ~ 2021-09-19(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+개인 스터디 
+    - 이철용 : 온라인 자료를 통한 'jump_to_django' 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   - 학습용 사진 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-08
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디 진행방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 1. Django를 사용하여 웹 서비스 구축 / 2. 수집한 데이터를 모델에 학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다음 미팅까지 준비 사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : jump_to_Django 전체 실습 완료, 파이썬 웹 프로그래밍 책의 예제 중 Photo 앱 관련 실습 구축해보기
+3. 기타 사항 : -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 정보 유출 방지를 위한 지문 정보 비식별화 알고리즘 개발, 지문 탐지 서비스 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-16
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디 진행방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 1. Django를 사용하여 웹 서비스 구축 / 2. 수집한 데이터를 모델에 학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다음 미팅까지 준비 사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 파이썬 웹 프로그래밍 책의 예제 중 Photo 앱 관련 실습 구축해보기
+3. 기타 사항 : -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집한 데이터를 모델에 학습
+오픈 소스를 활용하여 웹 서비스 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습용 사진 데이터 수집
+온라인 자료를 통한 'jump_to_django' 예제 실습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2384,7 +2494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2433,94 +2543,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2534,6 +2558,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2544,6 +2571,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2588,11 +2624,86 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2608,9 +2719,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2931,218 +3044,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="33" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="38"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="42" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="49"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="49"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="49"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="49"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="49"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="49"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="49"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="49"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="49"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="49"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="51" t="s">
@@ -3159,106 +3272,106 @@
       <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="49"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="49"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="49"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="49"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="49"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="49"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="49"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="49"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="49"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
@@ -3269,19 +3382,19 @@
       <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
@@ -3290,15 +3403,15 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="49"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
@@ -3307,16 +3420,16 @@
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="57" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="17" t="s">
         <v>70</v>
       </c>
       <c r="K31" s="6"/>
@@ -3324,30 +3437,30 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="49"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
@@ -3356,16 +3469,16 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="57" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="17" t="s">
         <v>68</v>
       </c>
       <c r="K34" s="6"/>
@@ -3373,30 +3486,30 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="67"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
@@ -3405,20 +3518,20 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="57" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="17" t="s">
         <v>67</v>
       </c>
       <c r="K37" s="6"/>
@@ -3426,54 +3539,54 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="59"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="19"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="69"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="78"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3489,6 +3602,19 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="J37:J38"/>
@@ -3496,19 +3622,6 @@
     <mergeCell ref="B29:I36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B37:I41"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:E17"/>
-    <mergeCell ref="F6:I17"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="B18:E28"/>
-    <mergeCell ref="F18:I28"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39632352941176469" right="0.26691176470588235" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3536,218 +3649,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="80"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="33" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="38"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="42" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="49"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="49"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="49"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="49"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="49"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="49"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="49"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="49"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="49"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="49"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="51" t="s">
@@ -3755,7 +3868,7 @@
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
-      <c r="E18" s="87"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="51" t="s">
         <v>75</v>
       </c>
@@ -3764,129 +3877,129 @@
       <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="49"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="49"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="49"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="49"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="49"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="49"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="49"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="49"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="49"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="88"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="53"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
       <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
@@ -3895,15 +4008,15 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="49"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
@@ -3912,16 +4025,16 @@
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="89" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="80" t="s">
         <v>77</v>
       </c>
       <c r="K31" s="6"/>
@@ -3929,30 +4042,30 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="49"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
@@ -3961,16 +4074,16 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="57" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="17" t="s">
         <v>74</v>
       </c>
       <c r="K34" s="6"/>
@@ -3978,30 +4091,30 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="67"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
@@ -4010,20 +4123,20 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="57" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="17" t="s">
         <v>76</v>
       </c>
       <c r="K37" s="6"/>
@@ -4031,55 +4144,68 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="59"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="19"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="69"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="78"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="J37:J38"/>
@@ -4087,19 +4213,6 @@
     <mergeCell ref="B29:I36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B37:I41"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:E17"/>
-    <mergeCell ref="F6:I17"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="B18:E28"/>
-    <mergeCell ref="F18:I28"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39632352941176469" right="0.28308823529411764" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4127,218 +4240,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="80"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="33" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="38"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="42" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="49"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="49"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="49"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="49"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="49"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="49"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="49"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="49"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="49"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="49"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="51" t="s">
@@ -4346,7 +4459,7 @@
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
-      <c r="E18" s="87"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="51" t="s">
         <v>38</v>
       </c>
@@ -4355,292 +4468,305 @@
       <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="49"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="49"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="49"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="49"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="49"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="49"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="49"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="49"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="49"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="88"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="53"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
       <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="49"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="89" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="80" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="49"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="89" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="80" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="67"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="57" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="59"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="69"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="78"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="B29:I36"/>
     <mergeCell ref="A37:A41"/>
@@ -4648,19 +4774,6 @@
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="J37:J38"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:E17"/>
-    <mergeCell ref="F6:I17"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="B18:E28"/>
-    <mergeCell ref="F18:I28"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.33161764705882352" right="0.33161764705882352" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4688,218 +4801,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="80"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="33" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="38"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="42" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="49"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="49"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="49"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="49"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="49"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="49"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="49"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="49"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="49"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="49"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="51" t="s">
@@ -4907,7 +5020,7 @@
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
-      <c r="E18" s="87"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="51" t="s">
         <v>12</v>
       </c>
@@ -4916,298 +5029,299 @@
       <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="49"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="49"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="49"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="49"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="49"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="49"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="49"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="49"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="49"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="88"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="53"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
       <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="49"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="89" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="80" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="49"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="89" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="80" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="67"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="57" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="59"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="69"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="78"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B37:I41"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
     <mergeCell ref="F6:I17"/>
     <mergeCell ref="B18:E28"/>
     <mergeCell ref="F18:I28"/>
@@ -5215,13 +5329,12 @@
     <mergeCell ref="A18:A28"/>
     <mergeCell ref="A6:A17"/>
     <mergeCell ref="B6:E17"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B37:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.37205882352941178" right="0.29926470588235293" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5249,218 +5362,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="80"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="33" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="38"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="42" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="49"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="49"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="49"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="49"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="49"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="49"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="49"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="49"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="49"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="49"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="51" t="s">
@@ -5468,7 +5581,7 @@
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
-      <c r="E18" s="87"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="51" t="s">
         <v>88</v>
       </c>
@@ -5477,289 +5590,850 @@
       <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="49"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="49"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="49"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="49"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="49"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="49"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="49"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="49"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="49"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="88"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="53"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
       <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="49"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="89" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="80" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="49"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="89" t="s">
+      <c r="A34" s="21"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="80" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="67"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="57" t="s">
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="59"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="69"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="78"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:I36"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:I41"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.37205882352941178" right="0.29926470588235293" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;D</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A22" zoomScale="85" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="50.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="72"/>
+      <c r="B4" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="78"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="79"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="32"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="32"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="33"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5794,12 +6468,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5810,520 +6484,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="79"/>
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="80"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="37"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="38"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="48"/>
+      <c r="A6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="49"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="49"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="49"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="49"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="49"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="49"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="49"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="49"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="49"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="49"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
-        <v>108</v>
+      <c r="A18" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
-      <c r="E18" s="87"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="51" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
       <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="49"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="49"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="49"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="49"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="49"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="49"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="49"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="49"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="49"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="88"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="53"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
       <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="A29" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="49"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="89" t="s">
+      <c r="A31" s="21"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="80" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="49"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="89" t="s">
-        <v>103</v>
+      <c r="A34" s="21"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="80" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="67"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="57" t="s">
-        <v>100</v>
+      <c r="A37" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="80" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="59"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="69"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="78"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="B29:I36"/>
     <mergeCell ref="J31:J32"/>
@@ -6331,19 +7018,6 @@
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B37:I41"/>
     <mergeCell ref="J37:J38"/>
-    <mergeCell ref="A6:A17"/>
-    <mergeCell ref="B6:E17"/>
-    <mergeCell ref="F6:I17"/>
-    <mergeCell ref="A18:A28"/>
-    <mergeCell ref="B18:E28"/>
-    <mergeCell ref="F18:I28"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.37205882352941178" right="0.29926470588235293" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6355,11 +7029,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
@@ -6371,226 +7045,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="80"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
+      <c r="G3" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="33" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="78"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="38"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="42" t="s">
+      <c r="B6" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="48"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="49"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="49"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="49"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="49"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="49"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="49"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="49"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="49"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="49"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="49"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
-      <c r="E18" s="87"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="51" t="s">
         <v>95</v>
       </c>
@@ -6599,289 +7273,289 @@
       <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="49"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="49"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="49"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="49"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="49"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="49"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="49"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="49"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="49"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54"/>
-      <c r="E28" s="88"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="53"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
       <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
+      <c r="B29" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="49"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="89" t="s">
-        <v>73</v>
+      <c r="A31" s="21"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="80" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="49"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="89" t="s">
-        <v>98</v>
+      <c r="A34" s="21"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="80" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="61"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="15" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="89" t="s">
-        <v>99</v>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="80" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="59"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="68"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="68"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="69"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="78"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/조별 프로젝트 주간보고서_시네틱스.xlsx
+++ b/조별 프로젝트 주간보고서_시네틱스.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="11" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="6주차" sheetId="15" r:id="rId6"/>
     <sheet name="7주차" sheetId="14" r:id="rId7"/>
     <sheet name="8주차" sheetId="16" r:id="rId8"/>
+    <sheet name="9주차" sheetId="17" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1주차'!$A$1:$I$41</definedName>
@@ -30,13 +31,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'6주차'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'7주차'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'8주차'!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'9주차'!$A$1:$I$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="148">
   <si>
     <t>조별 프로젝트 주간보고서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1340,7 +1342,272 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-08
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디 진행방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 1. Django를 사용하여 웹 서비스 구축 / 2. 수집한 데이터를 모델에 학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다음 미팅까지 준비 사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : jump_to_Django 전체 실습 완료, 파이썬 웹 프로그래밍 책의 예제 중 Photo 앱 관련 실습 구축해보기
+3. 기타 사항 : -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 정보 유출 방지를 위한 지문 정보 비식별화 알고리즘 개발, 지문 탐지 서비스 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+개인 스터디 
+    - 이철용 : '파이썬 웹 프로그래밍'을 이용하여 서비스를 동작하게 할 photo 사이트 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-24
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디 진행방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 1. 손가락을 인식하고 지문 노출의 위험성 존재 유무를 표시하는 웹 서비스 페이지 구축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다음 미팅까지 준비 사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : '파이썬 웹 프로그래밍' 중 photo 서비스 구축해보기
+3. 기타 사항 : -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   - 학습용 사진 데이터 수집
+   - 웹 사이트 환경 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+개인 스터디 
+    - 이철용 : 온라인 자료를 통한 'jump_to_django' 실습
+                  '파이썬 웹 프로그래밍' photo 사이트 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습용 사진 데이터 수집
+'파이썬 웹 프로그래밍' photo 사이트 실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    - 수집한 사진 데이터 모델 학습
+    - 손가락의 위치를 탐색하여 손가락의 위치를 알려주고, 지문 노추르이 위험성이 있음을 알려
+       주는 서비스를 할 수 있는 웹 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락의 위치를 탐색하여 손가락의 위치를 알려주고, 지문 노추르이 위험성이 있음을 알려주는 서비스를 할 수 있는 웹 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-20(월) ~ 2021-09-26(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조별 프로젝트 주간보고서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배정 기업명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시네틱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배정 교육생명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이철용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 주간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2021-09-13(월) ~ 2021-09-19(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   - 학습용 사진 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    - 수집한 사진 데이터 모델 학습
+    - 웹 서비스 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스터디</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>&amp;진로</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1351,7 +1618,13 @@
   </si>
   <si>
     <t xml:space="preserve">
-   - 학습용 사진 데이터 수집</t>
+개인 스터디 
+    - 이철용 : Django를 활용한 Photo 웹 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도&amp;
+멘토링 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1362,7 +1635,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-08
+      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-16
 </t>
     </r>
     <r>
@@ -1418,7 +1691,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> : jump_to_Django 전체 실습 완료, 파이썬 웹 프로그래밍 책의 예제 중 Photo 앱 관련 실습 구축해보기
+      <t xml:space="preserve"> : 파이썬 웹 프로그래밍 책의 예제 중 Photo 앱 관련 실습 구축해보기
 3. 기타 사항 : -</t>
     </r>
     <r>
@@ -1438,92 +1711,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-16
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스터디 진행방향</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> : 1. Django를 사용하여 웹 서비스 구축 / 2. 수집한 데이터를 모델에 학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 다음 미팅까지 준비 사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> : 파이썬 웹 프로그래밍 책의 예제 중 Photo 앱 관련 실습 구축해보기
-3. 기타 사항 : -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t/>
-    </r>
+    <t>학습용 사진 데이터 수집
+온라인 자료를 통한 'jump_to_django' 예제 실습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수집한 데이터를 모델에 학습
 오픈 소스를 활용하여 웹 서비스 페이지 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학습용 사진 데이터 수집
-온라인 자료를 통한 'jump_to_django' 예제 실습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6472,7 +6666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:I36"/>
     </sheetView>
   </sheetViews>
@@ -6826,7 +7020,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -7034,7 +7228,568 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="50.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72"/>
+      <c r="B4" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="78"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="79"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="32"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="32"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="33"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:I36"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:I41"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.37205882352941178" right="0.29926470588235293" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;D</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7086,7 +7841,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="69" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H3" s="70"/>
       <c r="I3" s="71"/>
@@ -7122,13 +7877,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="81"/>
       <c r="F6" s="45" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
@@ -7260,13 +8015,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
       <c r="E18" s="84"/>
       <c r="F18" s="51" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
@@ -7387,7 +8142,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -7425,7 +8180,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="28"/>
       <c r="J31" s="80" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -7465,7 +8220,7 @@
       <c r="H34" s="27"/>
       <c r="I34" s="28"/>
       <c r="J34" s="80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -7509,7 +8264,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="36"/>
       <c r="J37" s="80" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/조별 프로젝트 주간보고서_시네틱스.xlsx
+++ b/조별 프로젝트 주간보고서_시네틱스.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1주차" sheetId="11" r:id="rId1"/>
@@ -21,8 +21,12 @@
     <sheet name="7주차" sheetId="14" r:id="rId7"/>
     <sheet name="8주차" sheetId="16" r:id="rId8"/>
     <sheet name="9주차" sheetId="17" r:id="rId9"/>
+    <sheet name="10주차" sheetId="19" r:id="rId10"/>
+    <sheet name="11주차" sheetId="20" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'10주차'!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'11주차'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1주차'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2주차'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'3주차'!$A$1:$I$41</definedName>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="164">
   <si>
     <t>조별 프로젝트 주간보고서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1528,17 +1532,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-    - 수집한 사진 데이터 모델 학습
-    - 손가락의 위치를 탐색하여 손가락의 위치를 알려주고, 지문 노추르이 위험성이 있음을 알려
-       주는 서비스를 할 수 있는 웹 페이지 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손가락의 위치를 탐색하여 손가락의 위치를 알려주고, 지문 노추르이 위험성이 있음을 알려주는 서비스를 할 수 있는 웹 페이지 구축</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2021-09-20(월) ~ 2021-09-26(일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1718,6 +1711,249 @@
   <si>
     <t>수집한 데이터를 모델에 학습
 오픈 소스를 활용하여 웹 서비스 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   - 지문 탐지 서비스 용도의 웹 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    - 수집한 사진 데이터 모델 학습
+    - 손가락의 위치를 탐색하여 손가락의 위치를 알려주고, 지문 노출의 위험성이 있음을 알려
+       주는 서비스를 할 수 있는 웹 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    - 수집한 사진 데이터 모델 학습
+    - 손가락의 위치를 탐색하여 손가락의 위치를 알려주고, 지문 노출의 위험성이 있음을 알려
+       주는 서비스를 할 수 있는 웹 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+개인 스터디 
+    - 이철용 : '파이썬 웹 프로그래밍'의 photo 사이트를 활용하여 기능 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+개인 스터디 
+    - 이철용: '파이썬 웹 프로그래밍' photo 사이트 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지문 탐지 서비스 용도의 웹 페이지 구축
+'파이썬 웹 프로그래밍' photo 사이트 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락의 위치를 탐색하여 손가락의 위치를 알려주고, 지문 노출의 위험성이 있음을 알려주는 서비스를 할 수 있는 웹 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가락의 위치를 탐색하여 손가락의 위치를 알려주고, 지문 노출의 위험성이 있음을 알려주는 서비스를 할 수 있는 웹 페이지 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-29
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디 진행방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 1. 손가락을 인식하고 지문 노출의 위험성 존재 유무를 표시하는 웹 서비스 페이지 구축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다음 미팅까지 준비 사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : '파이썬 웹 프로그래밍' 중 photo 서비스 구축, 서비스 진행 준비
+3. 기타 사항 : -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-09-27(월) ~ 2021-10-03(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-10-04(월) ~ 2021-10-10(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   - 지문 탐지 서비스 용도의 웹 페이지 구축, 서비스 연결 진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+개인 스터디 
+    - 이철용: 오픈 소스 연결하여 서비스화 할 수 있는 방법에 대하여 자료 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+개인 스터디 
+    - 이철용 : 서비스 구축 스터디, 진로 방향성 확립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구분 :  멘토링   / 멘토 성함 : 한동준 멘토님  /날짜 : 2021-09-29
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디 진행방향</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 1. 손가락을 인식하고 지문 노출의 위험성 존재 유무를 표시하는 웹 서비스 페이지 구축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다음 미팅까지 준비 사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : 기존의 웹 페이지에 서비스 기능 추가
+3. 기타 사항 : -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지문 탐지 서비스 용도의 웹 페이지 구축, 서비스 연결 진행중
+오픈 소스 연결하여 서비스를 사용 할 수 있는 방법에 대한 자료 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    - 지문 노출의 위험성이 있음을 알려주는 서비스를 할 수 있는 웹 페이지 구축
+    - 발표 자료 및 전시 판넬 최종 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지문 노출의 위험성이 있음을 알려주는 서비스를 할 수 있는 웹 페이지 구축
+발표 자료 및 전시 판넬 최종 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2688,7 +2924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2729,6 +2965,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1">
@@ -2918,6 +3157,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3238,357 +3486,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="78"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="45" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="49"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="50"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="51" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="56"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
@@ -3597,15 +3845,15 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
@@ -3614,16 +3862,16 @@
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="17" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="18" t="s">
         <v>70</v>
       </c>
       <c r="K31" s="6"/>
@@ -3631,30 +3879,30 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
@@ -3663,16 +3911,16 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="17" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="18" t="s">
         <v>68</v>
       </c>
       <c r="K34" s="6"/>
@@ -3680,30 +3928,30 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="18"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
@@ -3712,20 +3960,20 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="17" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="18" t="s">
         <v>67</v>
       </c>
       <c r="K37" s="6"/>
@@ -3733,54 +3981,54 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="19"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -3826,6 +4074,1134 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A13" zoomScale="85" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="50.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="73"/>
+      <c r="B4" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="79"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="80"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="57"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="19"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="92" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="92"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="92"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="92"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="93"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:I36"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:I41"/>
+    <mergeCell ref="J37:J41"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.37205882352941178" right="0.29926470588235293" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;D</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="50.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="73"/>
+      <c r="B4" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="79"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="80"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="57"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="94"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="94"/>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="92" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="92"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="92"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="93"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B29:I36"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:I41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="A6:A17"/>
+    <mergeCell ref="B6:E17"/>
+    <mergeCell ref="F6:I17"/>
+    <mergeCell ref="A18:A28"/>
+    <mergeCell ref="B18:E28"/>
+    <mergeCell ref="F18:I28"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.37205882352941178" right="0.29926470588235293" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;D</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
@@ -3843,357 +5219,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="87"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="78"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="45" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="49"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="50"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="51" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="56"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
@@ -4202,15 +5578,15 @@
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
@@ -4219,16 +5595,16 @@
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="80" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="81" t="s">
         <v>77</v>
       </c>
       <c r="K31" s="6"/>
@@ -4236,30 +5612,30 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="19"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
@@ -4268,16 +5644,16 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="17" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="18" t="s">
         <v>74</v>
       </c>
       <c r="K34" s="6"/>
@@ -4285,30 +5661,30 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="18"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
@@ -4317,20 +5693,20 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="17" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="18" t="s">
         <v>76</v>
       </c>
       <c r="K37" s="6"/>
@@ -4338,52 +5714,52 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="19"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -4434,517 +5810,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="87"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="78"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="45" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="49"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="50"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="51" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="56"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="80" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="81" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="80" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="81" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="18"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="17" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="19"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -4995,517 +6371,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="87"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="78"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="45" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="49"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="50"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="51" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="56"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="80" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="81" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="80" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="81" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="18"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="17" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="19"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5556,517 +6932,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="87"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="78"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="45" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="49"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="50"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="51" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="56"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="80" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="81" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="80" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="81" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="18"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="17" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="19"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6117,517 +7493,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="87"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="78"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="45" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="49"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="50"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="51" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="56"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="80" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="81" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="80" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="81" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="18"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="17" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="18" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="19"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6678,517 +8054,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="87"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="78"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="45" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="49"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="50"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="51" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="56"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="80" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="81" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="80" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="81" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="18"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="80" t="s">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="81" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="19"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -7227,8 +8603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7239,517 +8615,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G2" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G3" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="73"/>
+      <c r="B4" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74" t="s">
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="79"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="80"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="74" t="s">
+      <c r="B6" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="78"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="79"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="45" t="s">
+      <c r="B18" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="49"/>
-    </row>
-    <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="50"/>
-    </row>
-    <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="57"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="51" t="s">
+      <c r="B29" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="55"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="56"/>
-    </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="80" t="s">
-        <v>145</v>
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="81" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="80" t="s">
-        <v>146</v>
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="81" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="18"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="80" t="s">
-        <v>147</v>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="81" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="19"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -7789,7 +9165,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I5"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7800,517 +9176,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="87"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="G3" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="78"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="49"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="50"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="51" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="56"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
       <c r="J30" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="80" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="81" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="80" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="81" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="18"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="80" t="s">
-        <v>126</v>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="81" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="19"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="33"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="20">
